--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="400">
   <si>
     <t>Path</t>
   </si>
@@ -321,38 +321,62 @@
     <t>Composition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>related-case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://cbsig.chai.gatech.edu/StructureDefinition/cbs-related-case}
+</t>
+  </si>
+  <si>
+    <t>Case Based Surveillance Related Case Extension</t>
+  </si>
+  <si>
+    <t>A list of strings with relevant case numbers and a type element that specifies the nature of the relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -729,6 +753,9 @@
   </si>
   <si>
     <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1377,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1387,7 +1414,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.18359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2352,7 +2379,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2371,17 +2398,15 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2418,16 +2443,14 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2448,7 +2471,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2460,13 +2483,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2476,29 +2501,25 @@
         <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2555,7 +2576,7 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>104</v>
@@ -2564,7 +2585,7 @@
         <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2576,32 +2597,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I11" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>112</v>
@@ -2612,7 +2633,9 @@
       <c r="M11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2660,39 +2683,39 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2700,7 +2723,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>53</v>
@@ -2709,26 +2732,24 @@
         <v>54</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>41</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>41</v>
@@ -2752,13 +2773,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2776,10 +2797,10 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>53</v>
@@ -2791,24 +2812,24 @@
         <v>65</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2825,25 +2846,25 @@
         <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2853,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>41</v>
@@ -2868,13 +2889,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2892,7 +2913,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2907,24 +2928,24 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2932,13 +2953,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -2947,19 +2968,19 @@
         <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2969,7 +2990,7 @@
         <v>41</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>41</v>
@@ -2984,13 +3005,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -3008,13 +3029,13 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>41</v>
@@ -3023,24 +3044,24 @@
         <v>65</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3051,7 +3072,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>41</v>
@@ -3063,19 +3084,19 @@
         <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3100,13 +3121,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -3124,13 +3145,13 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -3139,24 +3160,24 @@
         <v>65</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AN15" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3179,17 +3200,19 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3238,7 +3261,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3253,24 +3276,24 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3278,7 +3301,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>53</v>
@@ -3293,19 +3316,17 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3354,10 +3375,10 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>53</v>
@@ -3369,24 +3390,24 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3397,7 +3418,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3409,17 +3430,19 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3468,13 +3491,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3483,24 +3506,24 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3511,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3523,18 +3546,18 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3582,13 +3605,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3597,19 +3620,19 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -3622,7 +3645,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>53</v>
@@ -3637,7 +3660,7 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>208</v>
@@ -3672,13 +3695,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3699,7 +3722,7 @@
         <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>53</v>
@@ -3714,13 +3737,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3728,7 +3751,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3739,7 +3762,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3748,23 +3771,21 @@
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3788,13 +3809,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3812,13 +3833,13 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3830,13 +3851,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3844,7 +3865,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3855,7 +3876,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3867,16 +3888,20 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3924,31 +3949,31 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3956,18 +3981,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -3979,17 +4004,15 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4038,25 +4061,25 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4070,11 +4093,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4087,26 +4110,24 @@
         <v>41</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4154,7 +4175,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4172,7 +4193,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4186,40 +4207,42 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4244,13 +4267,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4268,28 +4291,28 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4308,7 +4331,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>53</v>
@@ -4323,7 +4346,7 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>245</v>
@@ -4358,13 +4381,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4385,7 +4408,7 @@
         <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>53</v>
@@ -4400,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4414,7 +4437,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4437,17 +4460,17 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4496,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4514,16 +4537,16 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4548,7 +4571,7 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>259</v>
@@ -4559,11 +4582,9 @@
       <c r="L28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4630,21 +4651,21 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM28" t="s" s="2">
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4655,19 +4676,19 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>268</v>
@@ -4678,7 +4699,9 @@
       <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4726,13 +4749,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4744,21 +4767,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4769,10 +4792,10 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4781,15 +4804,17 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4838,31 +4863,31 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4870,18 +4895,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4893,17 +4918,15 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4952,25 +4975,25 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4984,11 +5007,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5001,26 +5024,24 @@
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5068,7 +5089,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5086,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5100,41 +5121,43 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5158,13 +5181,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5182,31 +5205,31 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5214,7 +5237,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5237,15 +5260,17 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5270,13 +5295,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5294,7 +5319,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>53</v>
@@ -5312,13 +5337,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5326,7 +5351,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5334,10 +5359,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5346,23 +5371,19 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>297</v>
       </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5410,13 +5431,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5453,7 +5474,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5462,19 +5483,23 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5522,31 +5547,31 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5554,18 +5579,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5577,17 +5602,15 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5636,25 +5659,25 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5668,11 +5691,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5685,26 +5708,24 @@
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5770,7 +5791,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5784,11 +5805,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5801,24 +5822,26 @@
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5842,13 +5865,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5866,7 +5889,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5878,19 +5901,19 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5898,7 +5921,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5909,7 +5932,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5921,7 +5944,7 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>313</v>
@@ -5929,7 +5952,9 @@
       <c r="L40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5954,13 +5979,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5978,13 +6003,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -5996,13 +6021,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6010,7 +6035,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6021,7 +6046,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6033,13 +6058,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6090,13 +6115,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6108,21 +6133,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6136,22 +6161,22 @@
         <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6202,7 +6227,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6214,16 +6239,16 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6232,9 +6257,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6245,10 +6270,10 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6257,13 +6282,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6314,28 +6339,28 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6346,18 +6371,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6369,17 +6394,15 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6428,25 +6451,25 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6460,11 +6483,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6477,26 +6500,24 @@
         <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6544,7 +6565,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6562,7 +6583,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6576,42 +6597,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
+        <v>115</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6660,28 +6681,28 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6692,11 +6713,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6715,19 +6736,19 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6752,13 +6773,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6776,7 +6797,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6794,10 +6815,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6808,7 +6829,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6819,7 +6840,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6831,17 +6852,19 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6866,13 +6889,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6890,13 +6913,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6908,21 +6931,21 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6933,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -6945,18 +6968,18 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7004,13 +7027,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -7022,21 +7045,21 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7059,16 +7082,16 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7118,7 +7141,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7127,7 +7150,7 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>65</v>
@@ -7136,10 +7159,10 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7150,7 +7173,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7173,20 +7196,18 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7210,13 +7231,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7234,7 +7255,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7243,7 +7264,7 @@
         <v>53</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>65</v>
@@ -7255,13 +7276,13 @@
         <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7289,7 +7310,7 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>365</v>
@@ -7326,7 +7347,7 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>369</v>
@@ -7371,13 +7392,13 @@
         <v>371</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7393,7 +7414,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7405,7 +7426,7 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>373</v>
@@ -7416,7 +7437,9 @@
       <c r="M53" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7440,13 +7463,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7470,10 +7493,10 @@
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>65</v>
@@ -7482,10 +7505,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7496,7 +7519,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7507,7 +7530,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7519,20 +7542,18 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>383</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7556,40 +7577,40 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7598,10 +7619,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7623,7 +7644,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7635,7 +7656,7 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>388</v>
@@ -7646,7 +7667,9 @@
       <c r="M55" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7670,13 +7693,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7700,10 +7723,10 @@
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>65</v>
@@ -7712,20 +7735,134 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>138</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7735,7 +7872,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -639,7 +639,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-reporting-source-organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -854,10 +854,6 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization which maintains the composition</t>
   </si>
   <si>
@@ -1282,6 +1278,9 @@
     <t>conditionOfInterest</t>
   </si>
   <si>
+    <t>Condition of Interest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-condition)
 </t>
   </si>
@@ -1289,6 +1288,9 @@
     <t>encounters</t>
   </si>
   <si>
+    <t>Encounters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-hospitalization)
 </t>
   </si>
@@ -1296,6 +1298,9 @@
     <t>caseNotification</t>
   </si>
   <si>
+    <t>Case Notification Panel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-case-notification-panel)
 </t>
   </si>
@@ -1312,6 +1317,9 @@
     <t>Composition.section.section.title</t>
   </si>
   <si>
+    <t>Case Notification Panel Members</t>
+  </si>
+  <si>
     <t>Composition.section.section.code</t>
   </si>
   <si>
@@ -1346,6 +1354,9 @@
     <t>epi</t>
   </si>
   <si>
+    <t>Epi-Questionnaire Panel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-epi-questionnaire-panel)
 </t>
   </si>
@@ -1353,6 +1364,9 @@
     <t>occupationalData</t>
   </si>
   <si>
+    <t>Occupational Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/odh-PastOrPresentJob)
 </t>
   </si>
@@ -1360,6 +1374,9 @@
     <t>travelHistory</t>
   </si>
   <si>
+    <t>Travel History</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/travel-history-observation)
 </t>
   </si>
@@ -1367,13 +1384,29 @@
     <t>lab</t>
   </si>
   <si>
+    <t>Laboratory Related Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-lab-diagnosticreport|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-lab-observation|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-performing-lab|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-specimen)
+</t>
+  </si>
+  <si>
     <t>medicationAdministered</t>
   </si>
   <si>
+    <t>Medication Administered</t>
+  </si>
+  <si>
     <t>relatedPerson</t>
   </si>
   <si>
+    <t>Related Persons</t>
+  </si>
+  <si>
     <t>vitalRecordsReporting</t>
+  </si>
+  <si>
+    <t>Vital Records Reporting</t>
   </si>
 </sst>
 </file>
@@ -4806,19 +4839,19 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4885,13 +4918,13 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4899,7 +4932,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4925,13 +4958,13 @@
         <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4981,7 +5014,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4999,13 +5032,13 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5013,7 +5046,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5125,7 +5158,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5239,7 +5272,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5355,7 +5388,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5381,13 +5414,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5416,11 +5449,11 @@
         <v>133</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5437,7 +5470,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>53</v>
@@ -5455,13 +5488,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5469,7 +5502,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5492,13 +5525,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5549,7 +5582,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>53</v>
@@ -5567,13 +5600,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5581,7 +5614,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5607,16 +5640,16 @@
         <v>224</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5665,7 +5698,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5683,13 +5716,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5697,7 +5730,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5809,7 +5842,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5923,7 +5956,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6039,7 +6072,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6065,13 +6098,13 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6100,11 +6133,11 @@
         <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6121,7 +6154,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6145,7 +6178,7 @@
         <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6153,7 +6186,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6176,13 +6209,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6233,7 +6266,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6257,7 +6290,7 @@
         <v>194</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6265,7 +6298,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6288,13 +6321,13 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6345,7 +6378,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6363,7 +6396,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>138</v>
@@ -6377,7 +6410,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6385,7 +6418,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>43</v>
@@ -6403,10 +6436,10 @@
         <v>224</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6445,10 +6478,10 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AB43" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
@@ -6457,7 +6490,7 @@
         <v>102</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6469,16 +6502,16 @@
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6489,7 +6522,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6601,7 +6634,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6715,7 +6748,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6831,11 +6864,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6857,16 +6890,16 @@
         <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6915,7 +6948,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6947,7 +6980,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6973,16 +7006,16 @@
         <v>142</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7010,11 +7043,11 @@
         <v>160</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7031,7 +7064,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7063,7 +7096,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7086,13 +7119,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
@@ -7145,7 +7178,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7177,7 +7210,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7200,16 +7233,16 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7259,7 +7292,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7280,7 +7313,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7291,7 +7324,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7317,13 +7350,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7373,7 +7406,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7382,7 +7415,7 @@
         <v>53</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>65</v>
@@ -7391,10 +7424,10 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7405,7 +7438,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7431,16 +7464,16 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7468,11 +7501,11 @@
         <v>133</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7489,7 +7522,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7507,7 +7540,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>138</v>
@@ -7521,7 +7554,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7547,16 +7580,16 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7584,11 +7617,11 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7605,7 +7638,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7623,7 +7656,7 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>138</v>
@@ -7637,7 +7670,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7660,16 +7693,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7719,7 +7752,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7728,7 +7761,7 @@
         <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7737,10 +7770,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7751,7 +7784,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7777,16 +7810,16 @@
         <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7814,11 +7847,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7835,7 +7868,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7844,7 +7877,7 @@
         <v>53</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>65</v>
@@ -7853,7 +7886,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>138</v>
@@ -7867,7 +7900,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7893,13 +7926,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7949,7 +7982,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7958,7 +7991,7 @@
         <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>65</v>
@@ -7967,10 +8000,10 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -7981,10 +8014,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>41</v>
@@ -8009,10 +8042,10 @@
         <v>224</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8063,7 +8096,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8075,16 +8108,16 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8095,7 +8128,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8207,7 +8240,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8321,7 +8354,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8437,15 +8470,15 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>53</v>
@@ -8463,16 +8496,16 @@
         <v>55</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8482,7 +8515,7 @@
         <v>41</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>41</v>
@@ -8521,7 +8554,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8553,7 +8586,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8579,16 +8612,16 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8616,11 +8649,11 @@
         <v>160</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8637,7 +8670,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8669,7 +8702,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8692,13 +8725,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
@@ -8751,7 +8784,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8783,7 +8816,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8806,16 +8839,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8865,7 +8898,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8886,7 +8919,7 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8897,7 +8930,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8923,13 +8956,13 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8979,7 +9012,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8988,7 +9021,7 @@
         <v>53</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>65</v>
@@ -8997,10 +9030,10 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9011,7 +9044,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9037,16 +9070,16 @@
         <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -9074,11 +9107,11 @@
         <v>133</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9095,7 +9128,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9113,7 +9146,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>138</v>
@@ -9127,7 +9160,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9153,16 +9186,16 @@
         <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9190,11 +9223,11 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9211,7 +9244,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9229,7 +9262,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>138</v>
@@ -9243,7 +9276,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9269,13 +9302,13 @@
         <v>407</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9325,7 +9358,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9334,7 +9367,7 @@
         <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9343,10 +9376,10 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9357,7 +9390,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9383,16 +9416,16 @@
         <v>142</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9420,11 +9453,11 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9441,7 +9474,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9450,7 +9483,7 @@
         <v>53</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9459,7 +9492,7 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>138</v>
@@ -9473,7 +9506,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9499,13 +9532,13 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9555,7 +9588,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9564,7 +9597,7 @@
         <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>65</v>
@@ -9573,10 +9606,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9587,7 +9620,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>408</v>
@@ -9615,10 +9648,10 @@
         <v>224</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9669,7 +9702,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9681,16 +9714,16 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9701,7 +9734,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9813,7 +9846,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9927,7 +9960,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10043,15 +10076,15 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>53</v>
@@ -10069,16 +10102,16 @@
         <v>55</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10088,7 +10121,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10127,7 +10160,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10159,7 +10192,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10185,16 +10218,16 @@
         <v>142</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10222,11 +10255,11 @@
         <v>160</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10243,7 +10276,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10275,7 +10308,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10298,13 +10331,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
@@ -10357,7 +10390,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10389,7 +10422,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10412,16 +10445,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10471,7 +10504,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10492,7 +10525,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10503,7 +10536,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10529,13 +10562,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10585,7 +10618,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10594,7 +10627,7 @@
         <v>53</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>65</v>
@@ -10603,10 +10636,10 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10617,7 +10650,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10643,16 +10676,16 @@
         <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10680,11 +10713,11 @@
         <v>133</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
       </c>
@@ -10701,7 +10734,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10719,7 +10752,7 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>138</v>
@@ -10733,7 +10766,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10759,16 +10792,16 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10796,11 +10829,11 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10817,7 +10850,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10835,7 +10868,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>138</v>
@@ -10849,7 +10882,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10872,16 +10905,16 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10931,7 +10964,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10940,7 +10973,7 @@
         <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>65</v>
@@ -10949,10 +10982,10 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -10963,7 +10996,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10989,16 +11022,16 @@
         <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11026,11 +11059,11 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11047,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11056,7 +11089,7 @@
         <v>53</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11065,7 +11098,7 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>138</v>
@@ -11079,7 +11112,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11105,13 +11138,13 @@
         <v>41</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11161,7 +11194,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11170,7 +11203,7 @@
         <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>65</v>
@@ -11179,10 +11212,10 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11193,10 +11226,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>41</v>
@@ -11221,10 +11254,10 @@
         <v>224</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11275,7 +11308,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11287,16 +11320,16 @@
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11307,7 +11340,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11419,7 +11452,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11533,7 +11566,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11649,15 +11682,15 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>53</v>
@@ -11675,16 +11708,16 @@
         <v>55</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
@@ -11694,7 +11727,7 @@
         <v>41</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>41</v>
@@ -11733,7 +11766,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11765,7 +11798,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11791,16 +11824,16 @@
         <v>142</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -11828,11 +11861,11 @@
         <v>160</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>41</v>
       </c>
@@ -11849,7 +11882,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11881,7 +11914,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11904,13 +11937,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11963,7 +11996,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -11995,7 +12028,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12018,16 +12051,16 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12077,7 +12110,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12098,7 +12131,7 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>41</v>
@@ -12109,7 +12142,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12135,13 +12168,13 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12191,7 +12224,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12200,7 +12233,7 @@
         <v>53</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>65</v>
@@ -12209,10 +12242,10 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>41</v>
@@ -12223,7 +12256,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12249,16 +12282,16 @@
         <v>73</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12286,11 +12319,11 @@
         <v>133</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
       </c>
@@ -12307,7 +12340,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12325,7 +12358,7 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>138</v>
@@ -12339,7 +12372,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12365,16 +12398,16 @@
         <v>142</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>41</v>
@@ -12402,11 +12435,11 @@
         <v>77</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>41</v>
       </c>
@@ -12423,7 +12456,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12441,7 +12474,7 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>138</v>
@@ -12455,7 +12488,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12478,16 +12511,16 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12537,7 +12570,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12546,7 +12579,7 @@
         <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>65</v>
@@ -12555,10 +12588,10 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>41</v>
@@ -12569,7 +12602,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12595,16 +12628,16 @@
         <v>142</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -12632,11 +12665,11 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
       </c>
@@ -12653,7 +12686,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12662,7 +12695,7 @@
         <v>53</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>65</v>
@@ -12671,7 +12704,7 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>138</v>
@@ -12685,7 +12718,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12711,13 +12744,13 @@
         <v>224</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12767,7 +12800,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12776,7 +12809,7 @@
         <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>65</v>
@@ -12785,10 +12818,10 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>41</v>
@@ -12799,7 +12832,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12911,7 +12944,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13025,7 +13058,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13141,11 +13174,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13167,16 +13200,16 @@
         <v>55</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13186,7 +13219,7 @@
         <v>41</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>41</v>
@@ -13225,7 +13258,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13257,7 +13290,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13283,16 +13316,16 @@
         <v>142</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13320,11 +13353,11 @@
         <v>160</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y103" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
       </c>
@@ -13341,7 +13374,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13373,7 +13406,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13396,13 +13429,13 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="L104" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13455,7 +13488,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -13487,7 +13520,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13510,16 +13543,16 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13569,7 +13602,7 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -13590,7 +13623,7 @@
         <v>41</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>41</v>
@@ -13601,7 +13634,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13627,13 +13660,13 @@
         <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13683,7 +13716,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -13692,7 +13725,7 @@
         <v>53</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>65</v>
@@ -13701,10 +13734,10 @@
         <v>41</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>41</v>
@@ -13715,7 +13748,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13741,16 +13774,16 @@
         <v>73</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>41</v>
@@ -13778,11 +13811,11 @@
         <v>133</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y107" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z107" t="s" s="2">
         <v>41</v>
       </c>
@@ -13799,7 +13832,7 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -13817,7 +13850,7 @@
         <v>41</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>138</v>
@@ -13831,7 +13864,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13857,16 +13890,16 @@
         <v>142</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>41</v>
@@ -13894,11 +13927,11 @@
         <v>77</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>41</v>
       </c>
@@ -13915,7 +13948,7 @@
         <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -13933,7 +13966,7 @@
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>138</v>
@@ -13947,7 +13980,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13970,16 +14003,16 @@
         <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14029,7 +14062,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14038,7 +14071,7 @@
         <v>43</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>65</v>
@@ -14047,10 +14080,10 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>41</v>
@@ -14061,7 +14094,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14087,16 +14120,16 @@
         <v>142</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14124,11 +14157,11 @@
         <v>77</v>
       </c>
       <c r="X110" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y110" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y110" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z110" t="s" s="2">
         <v>41</v>
       </c>
@@ -14145,7 +14178,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14154,7 +14187,7 @@
         <v>53</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>65</v>
@@ -14163,7 +14196,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>138</v>
@@ -14177,7 +14210,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14203,13 +14236,13 @@
         <v>41</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -14259,7 +14292,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14268,7 +14301,7 @@
         <v>43</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>65</v>
@@ -14277,10 +14310,10 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>41</v>
@@ -14291,10 +14324,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>41</v>
@@ -14319,10 +14352,10 @@
         <v>224</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14373,7 +14406,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14385,16 +14418,16 @@
         <v>41</v>
       </c>
       <c r="AI112" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK112" t="s" s="2">
+      <c r="AL112" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>41</v>
@@ -14405,7 +14438,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14517,7 +14550,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14631,7 +14664,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14747,15 +14780,15 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>53</v>
@@ -14773,16 +14806,16 @@
         <v>55</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>41</v>
@@ -14792,7 +14825,7 @@
         <v>41</v>
       </c>
       <c r="R116" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>41</v>
@@ -14831,7 +14864,7 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -14863,7 +14896,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14889,16 +14922,16 @@
         <v>142</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>41</v>
@@ -14926,11 +14959,11 @@
         <v>160</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>41</v>
       </c>
@@ -14947,7 +14980,7 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -14979,7 +15012,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15002,13 +15035,13 @@
         <v>41</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
@@ -15061,7 +15094,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15093,7 +15126,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15116,16 +15149,16 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15175,7 +15208,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15196,7 +15229,7 @@
         <v>41</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>41</v>
@@ -15207,7 +15240,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15233,13 +15266,13 @@
         <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15289,7 +15322,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15298,7 +15331,7 @@
         <v>53</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>65</v>
@@ -15307,10 +15340,10 @@
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>41</v>
@@ -15321,7 +15354,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15347,16 +15380,16 @@
         <v>73</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>41</v>
@@ -15384,11 +15417,11 @@
         <v>133</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y121" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y121" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z121" t="s" s="2">
         <v>41</v>
       </c>
@@ -15405,7 +15438,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15423,7 +15456,7 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>138</v>
@@ -15437,7 +15470,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15463,16 +15496,16 @@
         <v>142</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>41</v>
@@ -15500,11 +15533,11 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y122" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y122" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z122" t="s" s="2">
         <v>41</v>
       </c>
@@ -15521,7 +15554,7 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -15539,7 +15572,7 @@
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>138</v>
@@ -15553,7 +15586,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15576,16 +15609,16 @@
         <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15635,7 +15668,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -15644,7 +15677,7 @@
         <v>43</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>65</v>
@@ -15653,10 +15686,10 @@
         <v>41</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>41</v>
@@ -15667,7 +15700,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15693,16 +15726,16 @@
         <v>142</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>41</v>
@@ -15730,11 +15763,11 @@
         <v>77</v>
       </c>
       <c r="X124" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y124" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y124" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z124" t="s" s="2">
         <v>41</v>
       </c>
@@ -15751,7 +15784,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -15760,7 +15793,7 @@
         <v>53</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>65</v>
@@ -15769,7 +15802,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>138</v>
@@ -15783,7 +15816,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15809,13 +15842,13 @@
         <v>41</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15865,7 +15898,7 @@
         <v>41</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -15874,7 +15907,7 @@
         <v>43</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>65</v>
@@ -15883,10 +15916,10 @@
         <v>41</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>41</v>
@@ -15897,10 +15930,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>41</v>
@@ -15925,10 +15958,10 @@
         <v>224</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15979,7 +16012,7 @@
         <v>41</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -15991,16 +16024,16 @@
         <v>41</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK126" t="s" s="2">
+      <c r="AL126" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>41</v>
@@ -16011,7 +16044,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16123,7 +16156,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16237,7 +16270,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16353,15 +16386,15 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>53</v>
@@ -16379,16 +16412,16 @@
         <v>55</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>41</v>
@@ -16398,7 +16431,7 @@
         <v>41</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>41</v>
@@ -16437,7 +16470,7 @@
         <v>41</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -16469,7 +16502,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16495,16 +16528,16 @@
         <v>142</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>41</v>
@@ -16532,11 +16565,11 @@
         <v>160</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>41</v>
       </c>
@@ -16553,7 +16586,7 @@
         <v>41</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -16585,7 +16618,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16608,13 +16641,13 @@
         <v>41</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
@@ -16667,7 +16700,7 @@
         <v>41</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -16699,7 +16732,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16722,16 +16755,16 @@
         <v>41</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -16781,7 +16814,7 @@
         <v>41</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -16802,7 +16835,7 @@
         <v>41</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>41</v>
@@ -16813,7 +16846,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16839,13 +16872,13 @@
         <v>83</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16895,7 +16928,7 @@
         <v>41</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -16904,7 +16937,7 @@
         <v>53</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>65</v>
@@ -16913,10 +16946,10 @@
         <v>41</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>41</v>
@@ -16927,7 +16960,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16953,16 +16986,16 @@
         <v>73</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>41</v>
@@ -16990,11 +17023,11 @@
         <v>133</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y135" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z135" t="s" s="2">
         <v>41</v>
       </c>
@@ -17011,7 +17044,7 @@
         <v>41</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17029,7 +17062,7 @@
         <v>41</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>138</v>
@@ -17043,7 +17076,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17069,16 +17102,16 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>41</v>
@@ -17106,11 +17139,11 @@
         <v>77</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y136" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z136" t="s" s="2">
         <v>41</v>
       </c>
@@ -17127,7 +17160,7 @@
         <v>41</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17145,7 +17178,7 @@
         <v>41</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>138</v>
@@ -17159,7 +17192,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17182,16 +17215,16 @@
         <v>41</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17241,7 +17274,7 @@
         <v>41</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17250,7 +17283,7 @@
         <v>43</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>65</v>
@@ -17259,10 +17292,10 @@
         <v>41</v>
       </c>
       <c r="AK137" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL137" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>41</v>
@@ -17273,7 +17306,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17299,16 +17332,16 @@
         <v>142</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>41</v>
@@ -17336,11 +17369,11 @@
         <v>77</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>41</v>
       </c>
@@ -17357,7 +17390,7 @@
         <v>41</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17366,7 +17399,7 @@
         <v>53</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>65</v>
@@ -17375,7 +17408,7 @@
         <v>41</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>138</v>
@@ -17389,7 +17422,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17415,13 +17448,13 @@
         <v>41</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17471,7 +17504,7 @@
         <v>41</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -17480,7 +17513,7 @@
         <v>43</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>65</v>
@@ -17489,10 +17522,10 @@
         <v>41</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>41</v>
@@ -17503,10 +17536,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>41</v>
@@ -17531,10 +17564,10 @@
         <v>224</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17585,7 +17618,7 @@
         <v>41</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -17597,16 +17630,16 @@
         <v>41</v>
       </c>
       <c r="AI140" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK140" t="s" s="2">
+      <c r="AL140" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>41</v>
@@ -17617,7 +17650,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17729,7 +17762,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17843,7 +17876,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17959,15 +17992,15 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>53</v>
@@ -17985,16 +18018,16 @@
         <v>55</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>41</v>
@@ -18004,7 +18037,7 @@
         <v>41</v>
       </c>
       <c r="R144" t="s" s="2">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>41</v>
@@ -18043,7 +18076,7 @@
         <v>41</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18075,7 +18108,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18101,16 +18134,16 @@
         <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>41</v>
@@ -18138,11 +18171,11 @@
         <v>160</v>
       </c>
       <c r="X145" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y145" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y145" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z145" t="s" s="2">
         <v>41</v>
       </c>
@@ -18159,7 +18192,7 @@
         <v>41</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18191,7 +18224,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18214,13 +18247,13 @@
         <v>41</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
@@ -18273,7 +18306,7 @@
         <v>41</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -18305,7 +18338,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18328,16 +18361,16 @@
         <v>41</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -18387,7 +18420,7 @@
         <v>41</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -18408,7 +18441,7 @@
         <v>41</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>41</v>
@@ -18419,7 +18452,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18445,13 +18478,13 @@
         <v>83</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -18501,7 +18534,7 @@
         <v>41</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -18510,7 +18543,7 @@
         <v>53</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>65</v>
@@ -18519,10 +18552,10 @@
         <v>41</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>41</v>
@@ -18533,7 +18566,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18559,16 +18592,16 @@
         <v>73</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>41</v>
@@ -18596,11 +18629,11 @@
         <v>133</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>41</v>
       </c>
@@ -18617,7 +18650,7 @@
         <v>41</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -18635,7 +18668,7 @@
         <v>41</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>138</v>
@@ -18649,7 +18682,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18675,16 +18708,16 @@
         <v>142</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>41</v>
@@ -18712,11 +18745,11 @@
         <v>77</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>41</v>
       </c>
@@ -18733,7 +18766,7 @@
         <v>41</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -18751,7 +18784,7 @@
         <v>41</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>138</v>
@@ -18765,7 +18798,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18788,16 +18821,16 @@
         <v>41</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -18847,7 +18880,7 @@
         <v>41</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -18856,7 +18889,7 @@
         <v>43</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>65</v>
@@ -18865,10 +18898,10 @@
         <v>41</v>
       </c>
       <c r="AK151" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL151" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>41</v>
@@ -18879,7 +18912,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18905,16 +18938,16 @@
         <v>142</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>41</v>
@@ -18942,11 +18975,11 @@
         <v>77</v>
       </c>
       <c r="X152" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y152" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y152" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z152" t="s" s="2">
         <v>41</v>
       </c>
@@ -18963,7 +18996,7 @@
         <v>41</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -18972,7 +19005,7 @@
         <v>53</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>65</v>
@@ -18981,7 +19014,7 @@
         <v>41</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>138</v>
@@ -18995,7 +19028,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19021,13 +19054,13 @@
         <v>41</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="M153" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19077,7 +19110,7 @@
         <v>41</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19086,7 +19119,7 @@
         <v>43</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>65</v>
@@ -19095,10 +19128,10 @@
         <v>41</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>41</v>
@@ -19109,10 +19142,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>41</v>
@@ -19137,10 +19170,10 @@
         <v>224</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19191,7 +19224,7 @@
         <v>41</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19203,16 +19236,16 @@
         <v>41</v>
       </c>
       <c r="AI154" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK154" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK154" t="s" s="2">
+      <c r="AL154" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>41</v>
@@ -19223,7 +19256,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19335,7 +19368,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19449,7 +19482,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19565,15 +19598,15 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>53</v>
@@ -19591,16 +19624,16 @@
         <v>55</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>41</v>
@@ -19610,7 +19643,7 @@
         <v>41</v>
       </c>
       <c r="R158" t="s" s="2">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>41</v>
@@ -19649,7 +19682,7 @@
         <v>41</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -19681,7 +19714,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19707,16 +19740,16 @@
         <v>142</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>41</v>
@@ -19744,11 +19777,11 @@
         <v>160</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y159" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z159" t="s" s="2">
         <v>41</v>
       </c>
@@ -19765,7 +19798,7 @@
         <v>41</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -19797,7 +19830,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19820,13 +19853,13 @@
         <v>41</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
@@ -19879,7 +19912,7 @@
         <v>41</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -19911,7 +19944,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19934,16 +19967,16 @@
         <v>41</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -19993,7 +20026,7 @@
         <v>41</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20014,7 +20047,7 @@
         <v>41</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>41</v>
@@ -20025,7 +20058,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20051,13 +20084,13 @@
         <v>83</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -20107,7 +20140,7 @@
         <v>41</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20116,7 +20149,7 @@
         <v>53</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>65</v>
@@ -20125,10 +20158,10 @@
         <v>41</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>41</v>
@@ -20139,7 +20172,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20165,16 +20198,16 @@
         <v>73</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>41</v>
@@ -20202,11 +20235,11 @@
         <v>133</v>
       </c>
       <c r="X163" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y163" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y163" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z163" t="s" s="2">
         <v>41</v>
       </c>
@@ -20223,7 +20256,7 @@
         <v>41</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20241,7 +20274,7 @@
         <v>41</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>138</v>
@@ -20255,7 +20288,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20281,16 +20314,16 @@
         <v>142</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>41</v>
@@ -20318,11 +20351,11 @@
         <v>77</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y164" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z164" t="s" s="2">
         <v>41</v>
       </c>
@@ -20339,7 +20372,7 @@
         <v>41</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -20357,7 +20390,7 @@
         <v>41</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>138</v>
@@ -20371,7 +20404,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20394,16 +20427,16 @@
         <v>41</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>326</v>
+        <v>440</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -20453,7 +20486,7 @@
         <v>41</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -20462,7 +20495,7 @@
         <v>43</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>65</v>
@@ -20471,10 +20504,10 @@
         <v>41</v>
       </c>
       <c r="AK165" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL165" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>41</v>
@@ -20485,7 +20518,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20511,16 +20544,16 @@
         <v>142</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="M166" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>41</v>
@@ -20548,11 +20581,11 @@
         <v>77</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>41</v>
       </c>
@@ -20569,7 +20602,7 @@
         <v>41</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -20578,7 +20611,7 @@
         <v>53</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>65</v>
@@ -20587,7 +20620,7 @@
         <v>41</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>138</v>
@@ -20601,7 +20634,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20627,13 +20660,13 @@
         <v>41</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -20683,7 +20716,7 @@
         <v>41</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -20692,7 +20725,7 @@
         <v>43</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>65</v>
@@ -20701,10 +20734,10 @@
         <v>41</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>41</v>
@@ -20715,10 +20748,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>41</v>
@@ -20743,10 +20776,10 @@
         <v>224</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20797,7 +20830,7 @@
         <v>41</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -20809,16 +20842,16 @@
         <v>41</v>
       </c>
       <c r="AI168" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK168" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK168" t="s" s="2">
+      <c r="AL168" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>41</v>
@@ -20829,7 +20862,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20941,7 +20974,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21055,7 +21088,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21171,15 +21204,15 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>53</v>
@@ -21197,16 +21230,16 @@
         <v>55</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>41</v>
@@ -21216,7 +21249,7 @@
         <v>41</v>
       </c>
       <c r="R172" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>41</v>
@@ -21255,7 +21288,7 @@
         <v>41</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21287,7 +21320,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21313,16 +21346,16 @@
         <v>142</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>41</v>
@@ -21350,11 +21383,11 @@
         <v>160</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>41</v>
       </c>
@@ -21371,7 +21404,7 @@
         <v>41</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21403,7 +21436,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21426,13 +21459,13 @@
         <v>41</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K174" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K174" t="s" s="2">
+      <c r="L174" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
@@ -21485,7 +21518,7 @@
         <v>41</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -21517,7 +21550,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21540,16 +21573,16 @@
         <v>41</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -21599,7 +21632,7 @@
         <v>41</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
@@ -21620,7 +21653,7 @@
         <v>41</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>41</v>
@@ -21631,7 +21664,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21657,13 +21690,13 @@
         <v>83</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="M176" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -21713,7 +21746,7 @@
         <v>41</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -21722,7 +21755,7 @@
         <v>53</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>65</v>
@@ -21731,10 +21764,10 @@
         <v>41</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>41</v>
@@ -21745,7 +21778,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21771,16 +21804,16 @@
         <v>73</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>41</v>
@@ -21808,11 +21841,11 @@
         <v>133</v>
       </c>
       <c r="X177" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y177" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>41</v>
       </c>
@@ -21829,7 +21862,7 @@
         <v>41</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -21847,7 +21880,7 @@
         <v>41</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>138</v>
@@ -21861,7 +21894,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21887,16 +21920,16 @@
         <v>142</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>41</v>
@@ -21924,11 +21957,11 @@
         <v>77</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y178" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z178" t="s" s="2">
         <v>41</v>
       </c>
@@ -21945,7 +21978,7 @@
         <v>41</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -21963,7 +21996,7 @@
         <v>41</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>138</v>
@@ -21977,7 +22010,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22000,16 +22033,16 @@
         <v>41</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
@@ -22059,7 +22092,7 @@
         <v>41</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22068,7 +22101,7 @@
         <v>43</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>65</v>
@@ -22077,10 +22110,10 @@
         <v>41</v>
       </c>
       <c r="AK179" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL179" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL179" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>41</v>
@@ -22091,7 +22124,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22117,16 +22150,16 @@
         <v>142</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>41</v>
@@ -22154,11 +22187,11 @@
         <v>77</v>
       </c>
       <c r="X180" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y180" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y180" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z180" t="s" s="2">
         <v>41</v>
       </c>
@@ -22175,7 +22208,7 @@
         <v>41</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22184,7 +22217,7 @@
         <v>53</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>65</v>
@@ -22193,7 +22226,7 @@
         <v>41</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>138</v>
@@ -22207,7 +22240,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22233,13 +22266,13 @@
         <v>41</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="M181" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -22289,7 +22322,7 @@
         <v>41</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22298,7 +22331,7 @@
         <v>43</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>65</v>
@@ -22307,10 +22340,10 @@
         <v>41</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>41</v>
@@ -22321,10 +22354,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>41</v>
@@ -22349,10 +22382,10 @@
         <v>224</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -22403,7 +22436,7 @@
         <v>41</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -22415,16 +22448,16 @@
         <v>41</v>
       </c>
       <c r="AI182" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK182" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ182" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK182" t="s" s="2">
+      <c r="AL182" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>41</v>
@@ -22435,7 +22468,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22547,7 +22580,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22661,7 +22694,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22777,15 +22810,15 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>53</v>
@@ -22803,16 +22836,16 @@
         <v>55</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>41</v>
@@ -22822,7 +22855,7 @@
         <v>41</v>
       </c>
       <c r="R186" t="s" s="2">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>41</v>
@@ -22861,7 +22894,7 @@
         <v>41</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -22893,7 +22926,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22919,16 +22952,16 @@
         <v>142</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>41</v>
@@ -22956,11 +22989,11 @@
         <v>160</v>
       </c>
       <c r="X187" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y187" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y187" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z187" t="s" s="2">
         <v>41</v>
       </c>
@@ -22977,7 +23010,7 @@
         <v>41</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23009,7 +23042,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23032,13 +23065,13 @@
         <v>41</v>
       </c>
       <c r="J188" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K188" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K188" t="s" s="2">
+      <c r="L188" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
@@ -23091,7 +23124,7 @@
         <v>41</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23123,7 +23156,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23146,16 +23179,16 @@
         <v>41</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L189" t="s" s="2">
+      <c r="M189" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
@@ -23205,7 +23238,7 @@
         <v>41</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -23226,7 +23259,7 @@
         <v>41</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>41</v>
@@ -23237,7 +23270,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23263,13 +23296,13 @@
         <v>83</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L190" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="M190" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
@@ -23319,7 +23352,7 @@
         <v>41</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -23328,7 +23361,7 @@
         <v>53</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>65</v>
@@ -23337,10 +23370,10 @@
         <v>41</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>41</v>
@@ -23351,7 +23384,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23377,16 +23410,16 @@
         <v>73</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>41</v>
@@ -23414,11 +23447,11 @@
         <v>133</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>41</v>
       </c>
@@ -23435,7 +23468,7 @@
         <v>41</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -23453,7 +23486,7 @@
         <v>41</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL191" t="s" s="2">
         <v>138</v>
@@ -23467,7 +23500,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23493,16 +23526,16 @@
         <v>142</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>41</v>
@@ -23530,11 +23563,11 @@
         <v>77</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>41</v>
       </c>
@@ -23551,7 +23584,7 @@
         <v>41</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -23569,7 +23602,7 @@
         <v>41</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>138</v>
@@ -23583,7 +23616,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23606,16 +23639,16 @@
         <v>41</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
@@ -23665,7 +23698,7 @@
         <v>41</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -23674,7 +23707,7 @@
         <v>43</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>65</v>
@@ -23683,10 +23716,10 @@
         <v>41</v>
       </c>
       <c r="AK193" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL193" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>41</v>
@@ -23697,7 +23730,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23723,16 +23756,16 @@
         <v>142</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="M194" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>41</v>
@@ -23760,11 +23793,11 @@
         <v>77</v>
       </c>
       <c r="X194" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y194" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y194" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z194" t="s" s="2">
         <v>41</v>
       </c>
@@ -23781,7 +23814,7 @@
         <v>41</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>42</v>
@@ -23790,7 +23823,7 @@
         <v>53</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>65</v>
@@ -23799,7 +23832,7 @@
         <v>41</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>138</v>
@@ -23813,7 +23846,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23839,13 +23872,13 @@
         <v>41</v>
       </c>
       <c r="K195" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L195" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="M195" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
@@ -23895,7 +23928,7 @@
         <v>41</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -23904,7 +23937,7 @@
         <v>43</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI195" t="s" s="2">
         <v>65</v>
@@ -23913,10 +23946,10 @@
         <v>41</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>41</v>
@@ -23927,10 +23960,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>41</v>
@@ -23955,10 +23988,10 @@
         <v>224</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -24009,7 +24042,7 @@
         <v>41</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24021,16 +24054,16 @@
         <v>41</v>
       </c>
       <c r="AI196" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK196" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AJ196" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK196" t="s" s="2">
+      <c r="AL196" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>41</v>
@@ -24041,7 +24074,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24153,7 +24186,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24267,7 +24300,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24383,15 +24416,15 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F200" t="s" s="2">
         <v>53</v>
@@ -24409,16 +24442,16 @@
         <v>55</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>41</v>
@@ -24428,7 +24461,7 @@
         <v>41</v>
       </c>
       <c r="R200" t="s" s="2">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>41</v>
@@ -24467,7 +24500,7 @@
         <v>41</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -24499,7 +24532,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -24525,16 +24558,16 @@
         <v>142</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="M201" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>41</v>
@@ -24562,11 +24595,11 @@
         <v>160</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>41</v>
       </c>
@@ -24583,7 +24616,7 @@
         <v>41</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -24615,7 +24648,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -24638,13 +24671,13 @@
         <v>41</v>
       </c>
       <c r="J202" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K202" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K202" t="s" s="2">
+      <c r="L202" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
@@ -24697,7 +24730,7 @@
         <v>41</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>42</v>
@@ -24729,7 +24762,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24752,16 +24785,16 @@
         <v>41</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="M203" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -24811,7 +24844,7 @@
         <v>41</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -24832,7 +24865,7 @@
         <v>41</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>41</v>
@@ -24843,7 +24876,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24869,13 +24902,13 @@
         <v>83</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
@@ -24925,7 +24958,7 @@
         <v>41</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -24934,7 +24967,7 @@
         <v>53</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>65</v>
@@ -24943,10 +24976,10 @@
         <v>41</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>41</v>
@@ -24957,7 +24990,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24983,16 +25016,16 @@
         <v>73</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>41</v>
@@ -25020,11 +25053,11 @@
         <v>133</v>
       </c>
       <c r="X205" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y205" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y205" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z205" t="s" s="2">
         <v>41</v>
       </c>
@@ -25041,7 +25074,7 @@
         <v>41</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
@@ -25059,7 +25092,7 @@
         <v>41</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>138</v>
@@ -25073,7 +25106,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -25099,16 +25132,16 @@
         <v>142</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L206" t="s" s="2">
+      <c r="M206" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>41</v>
@@ -25136,11 +25169,11 @@
         <v>77</v>
       </c>
       <c r="X206" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y206" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y206" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z206" t="s" s="2">
         <v>41</v>
       </c>
@@ -25157,7 +25190,7 @@
         <v>41</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -25175,7 +25208,7 @@
         <v>41</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL206" t="s" s="2">
         <v>138</v>
@@ -25189,7 +25222,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -25212,16 +25245,16 @@
         <v>41</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="M207" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
@@ -25271,7 +25304,7 @@
         <v>41</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
@@ -25280,7 +25313,7 @@
         <v>43</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>65</v>
@@ -25289,10 +25322,10 @@
         <v>41</v>
       </c>
       <c r="AK207" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL207" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL207" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>41</v>
@@ -25303,7 +25336,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -25329,16 +25362,16 @@
         <v>142</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>41</v>
@@ -25366,11 +25399,11 @@
         <v>77</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>41</v>
       </c>
@@ -25387,7 +25420,7 @@
         <v>41</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -25396,7 +25429,7 @@
         <v>53</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>65</v>
@@ -25405,7 +25438,7 @@
         <v>41</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>138</v>
@@ -25419,7 +25452,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -25445,13 +25478,13 @@
         <v>41</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="M209" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
@@ -25501,7 +25534,7 @@
         <v>41</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -25510,7 +25543,7 @@
         <v>43</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>65</v>
@@ -25519,10 +25552,10 @@
         <v>41</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$223</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8099" uniqueCount="450">
   <si>
     <t>Path</t>
   </si>
@@ -1349,6 +1349,16 @@
   </si>
   <si>
     <t>Composition.section.section.section</t>
+  </si>
+  <si>
+    <t>reporting</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-person-reporting-to-cdc|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-reporting-source-organization)
+</t>
   </si>
   <si>
     <t>epi</t>
@@ -1555,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN209"/>
+  <dimension ref="A1:AN223"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22033,7 +22043,7 @@
         <v>41</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>386</v>
@@ -22357,7 +22367,7 @@
         <v>329</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>41</v>
@@ -22855,7 +22865,7 @@
         <v>41</v>
       </c>
       <c r="R186" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>41</v>
@@ -23963,7 +23973,7 @@
         <v>329</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>41</v>
@@ -24461,7 +24471,7 @@
         <v>41</v>
       </c>
       <c r="R200" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>41</v>
@@ -25564,8 +25574,1614 @@
         <v>41</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F210" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P210" s="2"/>
+      <c r="Q210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN210" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" hidden="true">
+      <c r="A211" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F211" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P211" s="2"/>
+      <c r="Q211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN211" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" hidden="true">
+      <c r="A212" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F212" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N212" s="2"/>
+      <c r="O212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P212" s="2"/>
+      <c r="Q212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN212" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" hidden="true">
+      <c r="A213" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F213" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P213" s="2"/>
+      <c r="Q213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN213" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" hidden="true">
+      <c r="A214" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F214" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P214" s="2"/>
+      <c r="Q214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R214" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL214" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN214" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" hidden="true">
+      <c r="A215" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F215" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P215" s="2"/>
+      <c r="Q215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL215" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AM215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN215" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" hidden="true">
+      <c r="A216" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F216" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M216" s="2"/>
+      <c r="N216" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P216" s="2"/>
+      <c r="Q216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL216" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN216" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" hidden="true">
+      <c r="A217" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F217" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N217" s="2"/>
+      <c r="O217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL217" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN217" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" hidden="true">
+      <c r="A218" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL218" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN218" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F219" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL219" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN219" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" hidden="true">
+      <c r="A220" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F220" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL220" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN220" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F221" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N221" s="2"/>
+      <c r="O221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P221" s="2"/>
+      <c r="Q221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL221" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN221" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F222" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P222" s="2"/>
+      <c r="Q222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN222" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F223" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N223" s="2"/>
+      <c r="O223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN209">
+  <autoFilter ref="A1:AN223">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25575,7 +27191,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI208">
+  <conditionalFormatting sqref="A2:AI222">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -1440,7 +1440,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-case-notification-panel|http://cbsig.chai.gatech.edu/StructureDefinition/cbs-cnp-member)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-case-notification-panel)
 </t>
   </si>
   <si>

--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -1463,23 +1463,19 @@
 </t>
   </si>
   <si>
-    <t>epiQuestions</t>
-  </si>
-  <si>
-    <t>Epi Questionnaires and Observations</t>
+    <t>epiObservations</t>
+  </si>
+  <si>
+    <t>Epi Observations</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://cbsig.chai.gatech.edu/CodeSystem/cbs-temp-code-system"/&gt;
-    &lt;code value="epi-questions"/&gt;
-    &lt;display value="Epi Questionnaires and Observations"/&gt;
+    &lt;code value="epi-observations"/&gt;
+    &lt;display value="Epi Observations"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-epi-questionnaire-panel)
-</t>
   </si>
   <si>
     <t>occupationalData</t>
@@ -16105,7 +16101,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>423</v>
@@ -16429,7 +16425,7 @@
         <v>366</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>78</v>
@@ -16927,7 +16923,7 @@
         <v>78</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>78</v>
@@ -17043,7 +17039,7 @@
         <v>78</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>78</v>
@@ -17711,7 +17707,7 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>423</v>
@@ -18035,7 +18031,7 @@
         <v>366</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>78</v>
@@ -18533,7 +18529,7 @@
         <v>78</v>
       </c>
       <c r="R145" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S145" t="s" s="2">
         <v>78</v>
@@ -18649,7 +18645,7 @@
         <v>78</v>
       </c>
       <c r="R146" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>78</v>
@@ -19317,7 +19313,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>423</v>
@@ -19641,7 +19637,7 @@
         <v>366</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>78</v>
@@ -20139,7 +20135,7 @@
         <v>78</v>
       </c>
       <c r="R159" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>78</v>
@@ -20255,7 +20251,7 @@
         <v>78</v>
       </c>
       <c r="R160" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>78</v>
@@ -20923,7 +20919,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>423</v>
@@ -21247,7 +21243,7 @@
         <v>366</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>78</v>
@@ -21745,7 +21741,7 @@
         <v>78</v>
       </c>
       <c r="R173" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>78</v>
@@ -21861,7 +21857,7 @@
         <v>78</v>
       </c>
       <c r="R174" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>78</v>
@@ -22529,7 +22525,7 @@
         <v>78</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>423</v>
@@ -22853,7 +22849,7 @@
         <v>366</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C183" t="s" s="2">
         <v>78</v>
@@ -23351,7 +23347,7 @@
         <v>78</v>
       </c>
       <c r="R187" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S187" t="s" s="2">
         <v>78</v>
@@ -23467,7 +23463,7 @@
         <v>78</v>
       </c>
       <c r="R188" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>78</v>
@@ -24459,7 +24455,7 @@
         <v>366</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C197" t="s" s="2">
         <v>78</v>
@@ -24957,7 +24953,7 @@
         <v>78</v>
       </c>
       <c r="R201" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>78</v>
@@ -25073,7 +25069,7 @@
         <v>78</v>
       </c>
       <c r="R202" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>78</v>
@@ -26065,7 +26061,7 @@
         <v>366</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C211" t="s" s="2">
         <v>78</v>
@@ -26563,7 +26559,7 @@
         <v>78</v>
       </c>
       <c r="R215" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S215" t="s" s="2">
         <v>78</v>
@@ -26679,7 +26675,7 @@
         <v>78</v>
       </c>
       <c r="R216" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>78</v>
@@ -27671,7 +27667,7 @@
         <v>366</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>78</v>
@@ -28169,7 +28165,7 @@
         <v>78</v>
       </c>
       <c r="R229" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>78</v>
@@ -28285,7 +28281,7 @@
         <v>78</v>
       </c>
       <c r="R230" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S230" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-cbs-composition.xlsx
+++ b/StructureDefinition-cbs-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
